--- a/Ciagu char.xlsx
+++ b/Ciagu char.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\48519\Desktop\SAE\saeregular2022\matlab calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F26D17-873D-4271-BD1E-A547C027260C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3985E695-EF40-4A1D-AA4C-8B1D82FFA582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -348,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -374,10 +374,26 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
+        <v>4.5</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>9</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>3.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
